--- a/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
+++ b/com.crm.framework.SDET37/src/test/resources/Sdet37TestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="6015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Organisations" sheetId="1" r:id="rId1"/>
     <sheet name="Contacts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -517,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
